--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="InterfaceTypes" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="172">
   <si>
     <t xml:space="preserve">InterfaceTypeHierarchy</t>
   </si>
@@ -487,6 +487,9 @@
     <t xml:space="preserve">Scale</t>
   </si>
   <si>
+    <t xml:space="preserve">? p1&lt;0.3 =&gt; 0.5, p1&gt;=0.3 AND p1&lt;0.7 =&gt; 0, true =&gt; 0.3 ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.4*10</t>
   </si>
   <si>
@@ -530,6 +533,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DummyCol</t>
   </si>
   <si>
     <t xml:space="preserve">PalmOil1</t>
@@ -691,6 +697,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1297,10 +1304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1308,6 +1315,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>17</v>
@@ -1316,7 +1328,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>17</v>
@@ -1325,7 +1337,7 @@
         <v>130</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
@@ -1339,7 +1351,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>17</v>
@@ -1348,13 +1360,13 @@
         <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5143,10 +5155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5202,6 +5214,9 @@
       <c r="G2" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -5240,7 +5255,7 @@
         <v>101</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,7 +5486,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>27</v>
@@ -5480,7 +5495,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.1</v>
@@ -5494,7 +5509,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>29</v>
@@ -5503,7 +5518,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.2</v>
@@ -5517,7 +5532,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>27</v>
@@ -5540,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>29</v>
@@ -5563,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>23</v>
@@ -5572,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0.7</v>
@@ -5586,7 +5601,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>25</v>
@@ -5595,7 +5610,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0.8</v>
@@ -5609,7 +5624,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>23</v>
@@ -5632,7 +5647,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>25</v>
@@ -5655,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>17</v>
@@ -5664,7 +5679,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.8</v>
@@ -5678,7 +5693,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>130</v>
@@ -5687,7 +5702,7 @@
         <v>130</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0.9</v>
@@ -5701,7 +5716,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>21</v>
@@ -5710,7 +5725,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.7</v>
@@ -5724,7 +5739,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>17</v>
@@ -5747,7 +5762,7 @@
         <v>101</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>130</v>
@@ -5770,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>21</v>
@@ -5793,7 +5808,7 @@
         <v>94</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>31</v>
@@ -5802,7 +5817,7 @@
         <v>27</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0.2</v>
@@ -5813,7 +5828,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>151</v>
@@ -5836,7 +5851,7 @@
         <v>96</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>31</v>
@@ -5845,7 +5860,7 @@
         <v>23</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0.8</v>
@@ -5856,7 +5871,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>151</v>
@@ -5879,7 +5894,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>32</v>
@@ -5962,7 +5977,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>60</v>
@@ -5976,7 +5991,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>65</v>
@@ -5987,7 +6002,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>65</v>
@@ -5998,7 +6013,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>65</v>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="InterfaceTypes" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="170">
   <si>
     <t xml:space="preserve">InterfaceTypeHierarchy</t>
   </si>
@@ -515,12 +515,6 @@
   </si>
   <si>
     <t xml:space="preserve">ExternalSoyBean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioethanolCereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioethanolSugarCrops</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario</t>
@@ -1306,7 +1300,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1317,7 +1311,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1331,7 @@
         <v>130</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
@@ -1360,13 +1354,13 @@
         <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5157,8 +5151,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5808,16 +5802,13 @@
         <v>94</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0.2</v>
@@ -5828,7 +5819,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>151</v>
@@ -5851,16 +5842,13 @@
         <v>96</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0.8</v>
@@ -5871,7 +5859,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>151</v>
@@ -5894,7 +5882,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>32</v>
@@ -5977,7 +5965,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>60</v>
@@ -5991,7 +5979,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>65</v>
@@ -6002,7 +5990,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>65</v>
@@ -6013,7 +6001,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>65</v>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="183">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">PalmFruit</t>
   </si>
   <si>
-    <t xml:space="preserve">Rapeseed</t>
+    <t xml:space="preserve">RapeSeed</t>
   </si>
   <si>
     <t xml:space="preserve">SoyBean</t>
@@ -357,9 +357,6 @@
     <t xml:space="preserve">Archetype</t>
   </si>
   <si>
-    <t xml:space="preserve">RapeSeed</t>
-  </si>
-  <si>
     <t xml:space="preserve">“n-3”</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sugarbeet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RapeseedCrop</t>
   </si>
   <si>
     <t xml:space="preserve">OriginProcessors</t>
@@ -690,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -739,14 +733,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,10 +747,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1258,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1780,7 +1762,7 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +2068,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>107</v>
@@ -2179,10 +2161,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>106</v>
@@ -2196,10 +2178,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>106</v>
@@ -2213,13 +2195,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>107</v>
@@ -2230,13 +2212,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>107</v>
@@ -2247,10 +2229,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>39</v>
@@ -2264,10 +2246,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -2281,10 +2263,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>40</v>
@@ -2298,10 +2280,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>40</v>
@@ -2315,10 +2297,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>41</v>
@@ -2332,10 +2314,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>41</v>
@@ -2349,10 +2331,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>42</v>
@@ -2366,10 +2348,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>42</v>
@@ -2383,10 +2365,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>43</v>
@@ -2400,10 +2382,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>43</v>
@@ -2472,7 +2454,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>79</v>
@@ -2484,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>31</v>
@@ -2496,7 +2478,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>3</v>
@@ -2505,31 +2487,31 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2522,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="0"/>
       <c r="S2" s="0"/>
@@ -2557,7 +2539,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="0"/>
       <c r="S3" s="0"/>
@@ -2570,13 +2552,13 @@
         <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,13 +2573,13 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,13 +2590,13 @@
         <v>98</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,13 +2607,13 @@
         <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,7 +2624,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="0"/>
     </row>
@@ -2658,125 +2640,125 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="0"/>
-    </row>
-    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="12" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="G11" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
+      <c r="G13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="G15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="G16" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="G17" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="G18" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>138</v>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,21 +2766,21 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2788,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2799,10 @@
         <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2810,10 @@
         <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2821,10 @@
         <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,12 +2833,12 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,153 +2846,153 @@
         <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="12" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="D30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="D32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="D33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="12" t="s">
+      <c r="D35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="D37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="12" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="D39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3031,8 +3013,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L50" activeCellId="0" sqref="L50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3068,7 +3050,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>79</v>
@@ -3080,7 +3062,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>31</v>
@@ -3092,7 +3074,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>3</v>
@@ -3101,31 +3083,31 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +3115,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0.1285149</v>
@@ -3153,10 +3135,10 @@
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0.1164551</v>
@@ -3173,10 +3155,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0.1144008</v>
@@ -3193,10 +3175,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.0810668396092578</v>
@@ -3213,10 +3195,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0.0810241451952682</v>
@@ -3233,10 +3215,10 @@
         <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0.0837198399276661</v>
@@ -3253,16 +3235,16 @@
         <v>48</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0.0125177909103313</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>2011</v>
@@ -3273,16 +3255,16 @@
         <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0.0125698253799858</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>2012</v>
@@ -3293,16 +3275,16 @@
         <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0.012779585379132</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>2013</v>
@@ -3313,10 +3295,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0.290807572629191</v>
@@ -3333,10 +3315,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>0.284819139846198</v>
@@ -3353,10 +3335,10 @@
         <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0.338398023755541</v>
@@ -3373,10 +3355,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>510.783090193891</v>
@@ -3393,10 +3375,10 @@
         <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>510.783090193891</v>
@@ -3413,10 +3395,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>510.783090193891</v>
@@ -3433,10 +3415,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>344.554124680908</v>
@@ -3453,10 +3435,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>344.554124680908</v>
@@ -3473,10 +3455,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>344.554124680908</v>
@@ -3493,16 +3475,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L20" s="4" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>2011</v>
@@ -3513,16 +3495,16 @@
         <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S21" s="4" t="n">
         <v>2012</v>
@@ -3533,16 +3515,16 @@
         <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>2013</v>
@@ -3553,10 +3535,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>876.195771627155</v>
@@ -3573,10 +3555,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>876.195771627155</v>
@@ -3593,10 +3575,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>876.195771627155</v>
@@ -3613,10 +3595,10 @@
         <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>42</v>
@@ -3630,10 +3612,10 @@
         <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>42</v>
@@ -3647,10 +3629,10 @@
         <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>42</v>
@@ -3664,10 +3646,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>16.2712344327208</v>
@@ -3684,10 +3666,10 @@
         <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" s="4" t="n">
         <v>16.2712344327208</v>
@@ -3704,10 +3686,10 @@
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>16.2712344327208</v>
@@ -3724,16 +3706,16 @@
         <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>2011</v>
@@ -3744,16 +3726,16 @@
         <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>2012</v>
@@ -3764,16 +3746,16 @@
         <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>2013</v>
@@ -3784,10 +3766,10 @@
         <v>57</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>38</v>
@@ -3801,10 +3783,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>38</v>
@@ -3818,10 +3800,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>38</v>
@@ -3835,10 +3817,10 @@
         <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1.7056684219636</v>
@@ -3855,10 +3837,10 @@
         <v>59</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1.53914935457665</v>
@@ -3875,10 +3857,10 @@
         <v>59</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1.49408548045622</v>
@@ -3895,10 +3877,10 @@
         <v>59</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1.07593102225148</v>
@@ -3915,10 +3897,10 @@
         <v>59</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1.07086983533865</v>
@@ -3935,10 +3917,10 @@
         <v>59</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>1.09338948158698</v>
@@ -3955,16 +3937,16 @@
         <v>59</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>0.304586264843106</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>2011</v>
@@ -3975,16 +3957,16 @@
         <v>59</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0.304574055933306</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>2012</v>
@@ -3995,16 +3977,16 @@
         <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0.305988215559662</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>2013</v>
@@ -4015,10 +3997,10 @@
         <v>59</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>3.43079190132787</v>
@@ -4035,10 +4017,10 @@
         <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L48" s="4" t="n">
         <v>3.34609968866095</v>
@@ -4055,10 +4037,10 @@
         <v>59</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>3.92845513835257</v>
@@ -4075,10 +4057,10 @@
         <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>24.4178275844343</v>
@@ -4095,10 +4077,10 @@
         <v>64</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>22.1264702457203</v>
@@ -4115,10 +4097,10 @@
         <v>64</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L52" s="4" t="n">
         <v>21.7361460669016</v>
@@ -4135,10 +4117,10 @@
         <v>64</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>3.56694094280734</v>
@@ -4155,10 +4137,10 @@
         <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>3.5650623885918</v>
@@ -4175,10 +4157,10 @@
         <v>64</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>3.68367295681731</v>
@@ -4195,16 +4177,16 @@
         <v>64</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>1.35192141831578</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S56" s="4" t="n">
         <v>2011</v>
@@ -4215,16 +4197,16 @@
         <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>1.35754114103847</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S57" s="4" t="n">
         <v>2012</v>
@@ -4235,16 +4217,16 @@
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>1.38019522094625</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S58" s="4" t="n">
         <v>2013</v>
@@ -4255,10 +4237,10 @@
         <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L59" s="4" t="n">
         <v>52.3453630732544</v>
@@ -4275,10 +4257,10 @@
         <v>64</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L60" s="4" t="n">
         <v>51.2674451723156</v>
@@ -4295,10 +4277,10 @@
         <v>64</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L61" s="4" t="n">
         <v>60.9116442759974</v>
@@ -4315,10 +4297,10 @@
         <v>66</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>1.15663393821004</v>
@@ -4335,10 +4317,10 @@
         <v>66</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>1.0480959590078</v>
@@ -4355,10 +4337,10 @@
         <v>66</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>1.0296069189585</v>
@@ -4375,10 +4357,10 @@
         <v>66</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>2.43200518827774</v>
@@ -4395,10 +4377,10 @@
         <v>66</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>2.43072435585805</v>
@@ -4415,10 +4397,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>2.51159519782998</v>
@@ -4435,16 +4417,16 @@
         <v>66</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>0.625889545516565</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S68" s="4" t="n">
         <v>2011</v>
@@ -4455,16 +4437,16 @@
         <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0.628491268999291</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S69" s="4" t="n">
         <v>2012</v>
@@ -4475,16 +4457,16 @@
         <v>66</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0.638979268956598</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S70" s="4" t="n">
         <v>2013</v>
@@ -4495,10 +4477,10 @@
         <v>66</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>7.27018931572978</v>
@@ -4515,10 +4497,10 @@
         <v>66</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L72" s="4" t="n">
         <v>7.12047849615494</v>
@@ -4535,10 +4517,10 @@
         <v>66</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L73" s="4" t="n">
         <v>8.45995059388853</v>
@@ -4555,10 +4537,10 @@
         <v>68</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L74" s="4" t="n">
         <v>1.28514882023338</v>
@@ -4575,10 +4557,10 @@
         <v>68</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>1.16455106556423</v>
@@ -4595,10 +4577,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>1.14400768773166</v>
@@ -4615,10 +4597,10 @@
         <v>68</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L77" s="4" t="n">
         <v>1.62133679218516</v>
@@ -4635,10 +4617,10 @@
         <v>68</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>1.62048290390536</v>
@@ -4655,10 +4637,10 @@
         <v>68</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>1.67439679855332</v>
@@ -4675,16 +4657,16 @@
         <v>68</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L80" s="4" t="n">
         <v>0.876245363723192</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S80" s="4" t="n">
         <v>2011</v>
@@ -4695,16 +4677,16 @@
         <v>68</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L81" s="4" t="n">
         <v>0.879887776599008</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S81" s="4" t="n">
         <v>2012</v>
@@ -4715,16 +4697,16 @@
         <v>68</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0.894570976539237</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S82" s="4" t="n">
         <v>2013</v>
@@ -4735,10 +4717,10 @@
         <v>68</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>8.72422717887574</v>
@@ -4755,10 +4737,10 @@
         <v>68</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>8.54457419538593</v>
@@ -4775,10 +4757,10 @@
         <v>68</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>10.1519407126662</v>
@@ -4795,10 +4777,10 @@
         <v>70</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L86" s="4" t="n">
         <v>11.7274304598456</v>
@@ -4815,10 +4797,10 @@
         <v>70</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>7.47666590379534</v>
@@ -4835,10 +4817,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L88" s="4" t="n">
         <v>1.2054039882177</v>
@@ -4855,10 +4837,10 @@
         <v>70</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>24.1961621014873</v>
@@ -4875,10 +4857,10 @@
         <v>70</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>10.6269339576279</v>
@@ -4895,10 +4877,10 @@
         <v>70</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L91" s="4" t="n">
         <v>7.47272826578086</v>
@@ -4915,16 +4897,16 @@
         <v>70</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L92" s="4" t="n">
         <v>1.21041466124265</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S92" s="4" t="n">
         <v>2011</v>
@@ -4935,16 +4917,16 @@
         <v>70</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L93" s="4" t="n">
         <v>23.6979044768967</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S93" s="4" t="n">
         <v>2012</v>
@@ -4955,16 +4937,16 @@
         <v>70</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>10.439468481919</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S94" s="4" t="n">
         <v>2013</v>
@@ -4975,10 +4957,10 @@
         <v>70</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>7.7213479108775</v>
@@ -4995,10 +4977,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L96" s="4" t="n">
         <v>1.23061355586794</v>
@@ -5015,10 +4997,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L97" s="4" t="n">
         <v>28.1558467119165</v>
@@ -5048,8 +5030,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I17" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R31" activeCellId="0" sqref="R31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5085,7 +5067,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>79</v>
@@ -5097,7 +5079,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>31</v>
@@ -5109,7 +5091,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>3</v>
@@ -5118,31 +5100,31 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -5150,12 +5132,12 @@
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14.639493</v>
@@ -5164,19 +5146,19 @@
         <v>47</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>7.7147</v>
@@ -5185,7 +5167,7 @@
         <v>47</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,10 +5175,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1.4</v>
@@ -5205,7 +5187,7 @@
         <v>47</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,10 +5195,10 @@
         <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>52.14</v>
@@ -5225,7 +5207,7 @@
         <v>47</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,10 +5215,10 @@
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1077.676</v>
@@ -5245,27 +5227,27 @@
         <v>47</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="15" t="n">
+        <v>111</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="13" t="n">
         <v>4.7689</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>139</v>
+      <c r="S7" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
@@ -5274,19 +5256,19 @@
         <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0.423619</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,19 +5276,19 @@
         <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0.198178</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,19 +5296,19 @@
         <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,19 +5316,19 @@
         <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>201.02</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,39 +5336,39 @@
         <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>1245.42</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="13" t="n">
         <v>2.690051</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>139</v>
+      <c r="S13" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ13" s="0"/>
     </row>
@@ -5395,10 +5377,10 @@
         <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0.483017507961291</v>
@@ -5407,7 +5389,7 @@
         <v>47</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,10 +5397,10 @@
         <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0.318721995608352</v>
@@ -5427,7 +5409,7 @@
         <v>47</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,10 +5417,10 @@
         <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0.7</v>
@@ -5447,7 +5429,7 @@
         <v>47</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,10 +5437,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>139.440647380989</v>
@@ -5467,7 +5449,7 @@
         <v>47</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,10 +5457,10 @@
         <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>2886.98274968357</v>
@@ -5487,27 +5469,27 @@
         <v>47</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="15" t="n">
+        <v>115</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="13" t="n">
         <v>4.94047619047619</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="15" t="s">
-        <v>139</v>
+      <c r="S19" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ19" s="0"/>
     </row>
@@ -5516,10 +5498,10 @@
         <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>31.1</v>
@@ -5528,7 +5510,7 @@
         <v>46</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,10 +5518,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>21.2</v>
@@ -5548,7 +5530,7 @@
         <v>46</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,10 +5538,10 @@
         <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>0.7</v>
@@ -5568,7 +5550,7 @@
         <v>46</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,10 +5558,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>143.0069</v>
@@ -5588,7 +5570,7 @@
         <v>46</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,10 +5578,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>562</v>
@@ -5608,27 +5590,27 @@
         <v>46</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="15" t="n">
+        <v>117</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>139</v>
+      <c r="R25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ25" s="0"/>
     </row>
@@ -5637,10 +5619,10 @@
         <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>11.000603</v>
@@ -5649,7 +5631,7 @@
         <v>46</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,10 +5639,10 @@
         <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>1.1</v>
@@ -5669,7 +5651,7 @@
         <v>46</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,10 +5659,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>0.7</v>
@@ -5689,7 +5671,7 @@
         <v>46</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,10 +5679,10 @@
         <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>218.0069</v>
@@ -5709,7 +5691,7 @@
         <v>46</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,10 +5699,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>5054</v>
@@ -5729,27 +5711,27 @@
         <v>46</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L31" s="15" t="n">
+        <v>119</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="13" t="n">
         <v>11.5</v>
       </c>
-      <c r="R31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>139</v>
+      <c r="R31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ31" s="0"/>
     </row>
@@ -5758,10 +5740,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>4.388</v>
@@ -5770,7 +5752,7 @@
         <v>46</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,10 +5760,10 @@
         <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>4.34</v>
@@ -5790,7 +5772,7 @@
         <v>46</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,10 +5780,10 @@
         <v>59</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>0.7</v>
@@ -5810,7 +5792,7 @@
         <v>46</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,10 +5800,10 @@
         <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>421.0069</v>
@@ -5830,7 +5812,7 @@
         <v>46</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,10 +5820,10 @@
         <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>14662</v>
@@ -5850,27 +5832,27 @@
         <v>46</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L37" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="13" t="n">
         <v>3.4</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>139</v>
+      <c r="R37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="AMJ37" s="0"/>
     </row>
@@ -5879,10 +5861,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>8.69</v>
@@ -5891,7 +5873,7 @@
         <v>46</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,10 +5881,10 @@
         <v>57</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>2.79</v>
@@ -5911,7 +5893,7 @@
         <v>46</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5919,10 +5901,10 @@
         <v>59</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0.7</v>
@@ -5931,7 +5913,7 @@
         <v>46</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,10 +5921,10 @@
         <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>407.0069</v>
@@ -5951,7 +5933,7 @@
         <v>46</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,10 +5941,10 @@
         <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>14562</v>
@@ -5971,7 +5953,7 @@
         <v>46</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,10 +5961,10 @@
         <v>43</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>3.26</v>
@@ -5991,7 +5973,7 @@
         <v>46</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6035,37 +6017,37 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>6</v>
@@ -6073,115 +6055,115 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>43</v>
@@ -6189,7 +6171,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -6199,7 +6181,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -6211,29 +6193,29 @@
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>47</v>
@@ -6245,12 +6227,12 @@
         <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>46</v>
@@ -6262,12 +6244,12 @@
         <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>46</v>
@@ -6279,12 +6261,12 @@
         <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -6296,12 +6278,12 @@
         <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>46</v>
@@ -6315,7 +6297,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -6337,10 +6319,10 @@
         <v>46</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,10 +6339,10 @@
         <v>47</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,7 +6359,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,7 +6376,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,9 +6393,9 @@
         <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6431,7 +6413,7 @@
         <v>47</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>12</v>
@@ -6472,36 +6454,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
@@ -6518,10 +6500,10 @@
         <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>47</v>
@@ -6535,19 +6517,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.4</v>
@@ -6555,13 +6537,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>47</v>
@@ -6575,13 +6557,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>47</v>
@@ -6598,10 +6580,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>47</v>
@@ -6615,13 +6597,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>46</v>
@@ -6638,10 +6620,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -6655,13 +6637,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
@@ -6678,10 +6660,10 @@
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
@@ -6695,13 +6677,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>46</v>
@@ -6718,10 +6700,10 @@
         <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>46</v>
@@ -6735,13 +6717,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>46</v>
@@ -6758,10 +6740,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>46</v>
@@ -6782,19 +6764,19 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,7 +6787,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>46</v>
@@ -6814,10 +6796,10 @@
         <v>46</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6810,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>46</v>
@@ -6840,7 +6822,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,7 +6833,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>46</v>
@@ -6863,7 +6845,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,7 +6856,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
@@ -6883,10 +6865,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,7 +6879,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>46</v>
@@ -6906,10 +6888,10 @@
         <v>46</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,7 +6902,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>46</v>
@@ -6932,7 +6914,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,7 +6925,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>46</v>
@@ -6955,7 +6937,7 @@
         <v>41</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,7 +6948,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>47</v>
@@ -6975,10 +6957,10 @@
         <v>47</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,10 +6968,10 @@
         <v>104</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>47</v>
@@ -6998,10 +6980,10 @@
         <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7012,7 +6994,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>47</v>
@@ -7021,10 +7003,10 @@
         <v>47</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,7 +7017,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>47</v>
@@ -7047,7 +7029,7 @@
         <v>106</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,10 +7037,10 @@
         <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>47</v>
@@ -7067,10 +7049,10 @@
         <v>47</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,7 +7063,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>47</v>
@@ -7093,7 +7075,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7086,7 @@
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>46</v>
@@ -7124,7 +7106,7 @@
         <v>103</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>46</v>
@@ -7145,7 +7127,7 @@
         <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>47</v>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="185">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sugarbeet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueWaterIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueWaterOut</t>
   </si>
   <si>
     <t xml:space="preserve">OriginProcessors</t>
@@ -5030,8 +5036,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5132,7 +5138,9 @@
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>111</v>
       </c>
@@ -5153,7 +5161,9 @@
       <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>111</v>
       </c>
@@ -5255,6 +5265,9 @@
       <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C8" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>113</v>
       </c>
@@ -5275,6 +5288,9 @@
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
@@ -5376,6 +5392,9 @@
       <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C14" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>115</v>
       </c>
@@ -5396,6 +5415,9 @@
       <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C15" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>115</v>
       </c>
@@ -5497,6 +5519,9 @@
       <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C20" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>117</v>
       </c>
@@ -5517,6 +5542,9 @@
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C21" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>117</v>
       </c>
@@ -5618,6 +5646,9 @@
       <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C26" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>119</v>
       </c>
@@ -5638,6 +5669,9 @@
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C27" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>119</v>
       </c>
@@ -5739,6 +5773,9 @@
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C32" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>121</v>
       </c>
@@ -5759,6 +5796,9 @@
       <c r="B33" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C33" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>121</v>
       </c>
@@ -5860,6 +5900,9 @@
       <c r="B38" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="C38" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>123</v>
       </c>
@@ -5879,6 +5922,9 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>123</v>
@@ -6017,37 +6063,37 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>6</v>
@@ -6067,7 +6113,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6130,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6147,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,7 +6164,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,7 +6181,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6198,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,7 +6217,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -6193,7 +6239,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,7 +6256,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6273,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,7 +6290,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,7 +6307,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6278,7 +6324,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,7 +6343,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -6319,10 +6365,10 @@
         <v>46</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,10 +6385,10 @@
         <v>47</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6405,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,7 +6422,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,7 +6439,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>13</v>
@@ -6413,7 +6459,7 @@
         <v>47</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>12</v>
@@ -6435,10 +6481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6454,56 +6500,56 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>47</v>
@@ -6512,118 +6558,119 @@
         <v>47</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.5</v>
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -6631,39 +6678,45 @@
       <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0.3</v>
+      <c r="F9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.5</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
@@ -6671,39 +6724,45 @@
       <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0.6</v>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
+      <c r="A12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>46</v>
@@ -6711,267 +6770,270 @@
       <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>2</v>
+      <c r="F13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>0.4</v>
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="n">
-        <v>0.9</v>
+      <c r="A15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="A16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>163</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>167</v>
+      <c r="A19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>175</v>
+      <c r="C24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>47</v>
@@ -6979,163 +7041,7 @@
       <c r="E25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="4" t="n">
+      <c r="G25" s="4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="183">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -466,12 +466,6 @@
   </si>
   <si>
     <t xml:space="preserve">DestinationInterface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination</t>
   </si>
   <si>
     <t xml:space="preserve">RelationType</t>
@@ -5036,7 +5030,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -6038,10 +6032,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6050,15 +6044,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="4" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="11" style="4" width="15.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6090,14 +6083,10 @@
         <v>150</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -6112,8 +6101,8 @@
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>153</v>
+      <c r="E2" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,8 +6118,8 @@
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>153</v>
+      <c r="E3" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6146,8 +6135,8 @@
       <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>153</v>
+      <c r="E4" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,8 +6152,8 @@
       <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>153</v>
+      <c r="E5" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,8 +6169,8 @@
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>153</v>
+      <c r="E6" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,8 +6186,8 @@
       <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>153</v>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,16 +6203,14 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -6238,8 +6225,8 @@
       <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>153</v>
+      <c r="E9" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,8 +6242,8 @@
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>153</v>
+      <c r="E10" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,8 +6259,8 @@
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>153</v>
+      <c r="E11" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,8 +6276,8 @@
       <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>153</v>
+      <c r="E12" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6306,8 +6293,8 @@
       <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>153</v>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,8 +6310,8 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>153</v>
+      <c r="E14" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,16 +6327,14 @@
       <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -6364,11 +6349,11 @@
       <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>154</v>
+      <c r="E16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,11 +6369,11 @@
       <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,8 +6389,8 @@
       <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>153</v>
+      <c r="E18" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,8 +6406,8 @@
       <c r="D19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>153</v>
+      <c r="E19" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,10 +6423,10 @@
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="E20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6458,10 +6443,10 @@
       <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="E21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6500,25 +6485,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,7 +6514,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
@@ -6549,7 +6534,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>47</v>
@@ -6569,7 +6554,7 @@
         <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
@@ -6589,7 +6574,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>46</v>
@@ -6609,7 +6594,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
@@ -6629,7 +6614,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>46</v>
@@ -6649,7 +6634,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>46</v>
@@ -6670,19 +6655,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,7 +6678,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
@@ -6702,10 +6687,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,7 +6701,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
@@ -6728,7 +6713,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,7 +6724,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>46</v>
@@ -6751,7 +6736,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,7 +6747,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>46</v>
@@ -6771,10 +6756,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,7 +6770,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>46</v>
@@ -6794,10 +6779,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,7 +6793,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>46</v>
@@ -6820,7 +6805,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,7 +6816,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>46</v>
@@ -6843,7 +6828,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,7 +6839,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>47</v>
@@ -6863,10 +6848,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,7 +6862,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>47</v>
@@ -6886,10 +6871,10 @@
         <v>47</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6885,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>47</v>
@@ -6909,10 +6894,10 @@
         <v>47</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,7 +6908,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>47</v>
@@ -6935,7 +6920,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,7 +6931,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>47</v>
@@ -6958,7 +6943,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,7 +6954,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>47</v>
@@ -6981,7 +6966,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +6977,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>46</v>
@@ -7012,7 +6997,7 @@
         <v>103</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>46</v>
@@ -7033,7 +7018,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>47</v>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="182">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t xml:space="preserve">RelationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChangeOfTypeScale</t>
   </si>
   <si>
     <t xml:space="preserve">Weight</t>
@@ -751,12 +748,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -768,7 +765,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -913,8 +910,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -926,7 +923,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1244,8 +1241,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1257,7 +1254,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1749,8 +1746,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1762,7 +1759,7 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2402,8 +2399,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2415,7 +2412,7 @@
   </sheetPr>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3000,8 +2997,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3013,7 +3010,7 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5017,8 +5014,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5030,7 +5027,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -6021,8 +6018,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6034,8 +6031,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6045,13 +6042,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="11" style="4" width="15.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="10" style="4" width="15.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6080,11 +6076,9 @@
         <v>149</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -6102,7 +6096,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,7 +6113,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +6130,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,7 +6147,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,7 +6164,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +6181,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,13 +6198,12 @@
         <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -6226,7 +6219,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,7 +6236,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6253,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +6270,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6294,7 +6287,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,7 +6304,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,13 +6321,12 @@
         <v>46</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -6350,10 +6342,10 @@
         <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,10 +6362,10 @@
         <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6382,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6407,7 +6399,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,9 +6416,9 @@
         <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6444,9 +6436,9 @@
         <v>47</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6455,8 +6447,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6468,7 +6460,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6485,25 +6477,25 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6506,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
@@ -6534,7 +6526,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>47</v>
@@ -6554,7 +6546,7 @@
         <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>47</v>
@@ -6574,7 +6566,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>46</v>
@@ -6594,7 +6586,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
@@ -6614,7 +6606,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>46</v>
@@ -6634,7 +6626,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>46</v>
@@ -6655,19 +6647,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6670,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
@@ -6687,10 +6679,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +6693,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>46</v>
@@ -6713,7 +6705,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,7 +6716,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>46</v>
@@ -6736,7 +6728,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +6739,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>46</v>
@@ -6756,10 +6748,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,7 +6762,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>46</v>
@@ -6779,10 +6771,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,7 +6785,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>46</v>
@@ -6805,7 +6797,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,7 +6808,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>46</v>
@@ -6828,7 +6820,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,7 +6831,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>47</v>
@@ -6848,10 +6840,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6862,7 +6854,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>47</v>
@@ -6871,10 +6863,10 @@
         <v>47</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,7 +6877,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>47</v>
@@ -6894,10 +6886,10 @@
         <v>47</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,7 +6900,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>47</v>
@@ -6920,7 +6912,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,7 +6923,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>47</v>
@@ -6943,7 +6935,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,7 +6946,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>47</v>
@@ -6966,7 +6958,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +6969,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>46</v>
@@ -6997,7 +6989,7 @@
         <v>103</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>46</v>
@@ -7018,7 +7010,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>47</v>
@@ -7035,8 +7027,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="248">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -346,12 +346,6 @@
     <t xml:space="preserve">ParentProcessor</t>
   </si>
   <si>
-    <t xml:space="preserve">CopyInterfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloneProcessor</t>
-  </si>
-  <si>
     <t xml:space="preserve">SubsystemType</t>
   </si>
   <si>
@@ -367,159 +361,159 @@
     <t xml:space="preserve">Stock</t>
   </si>
   <si>
+    <t xml:space="preserve">GeolocationRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeolocationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“n+1”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“n”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CommerceImports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CommerceExports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“n-1”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SugarCrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OilCrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“n-2”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalmOil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archetype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“n-3”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalmOilCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalmOilProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RapeSeedCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RapeSeedProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoyBeanCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoyBeanProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SugarCaneCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SugarCaneProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SugarBeetCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SugarBeetProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WheatCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WheatProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaizeCrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaizeProcessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterfaceAttributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedigreeMatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedigree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelativeTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberAttributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alias</t>
   </si>
   <si>
-    <t xml:space="preserve">GeolocationRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeolocationCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“n+1”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“n”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommerceImports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CommerceExports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“n-1”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SugarCrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OilCrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“n-2”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PalmOil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“n-3”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PalmOilCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PalmOilProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RapeSeedCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RapeSeedProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoyBeanCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoyBeanProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SugarCaneCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SugarCaneProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SugarBeetCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SugarBeetProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WheatCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WheatProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaizeCrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaizeProcessing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InterfaceAttributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PedigreeMatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedigree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RelativeTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberAttributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sugarbeet</t>
   </si>
   <si>
@@ -577,67 +571,106 @@
     <t xml:space="preserve">RequestedInterface</t>
   </si>
   <si>
+    <t xml:space="preserve">Scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">NewProcessorName</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale</t>
+    <t xml:space="preserve">NewProcessorGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewParentProcessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewSubsystemType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewGelocationRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewGeolocationCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewAttributes</t>
   </si>
   <si>
     <t xml:space="preserve">CloneAndScale</t>
   </si>
   <si>
+    <t xml:space="preserve">wheat_pct_extern * 0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExternalWheat</t>
   </si>
   <si>
-    <t xml:space="preserve">wheat_pct_extern * 0.2</t>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize_pct_extern * 0.8</t>
   </si>
   <si>
     <t xml:space="preserve">ExternalMaize</t>
   </si>
   <si>
-    <t xml:space="preserve">maize_pct_extern * 0.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1 – wheat_pct_extern) * 0.2</t>
   </si>
   <si>
     <t xml:space="preserve">(1 – maize_pct_extern) * 0.8</t>
   </si>
   <si>
+    <t xml:space="preserve">sugarcane_pct_extern * 0.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExternalSugarCane</t>
   </si>
   <si>
-    <t xml:space="preserve">sugarcane_pct_extern * 0.6</t>
+    <t xml:space="preserve">sugarbeet_pct_extern * 0.4</t>
   </si>
   <si>
     <t xml:space="preserve">ExternalSugarBeet</t>
   </si>
   <si>
-    <t xml:space="preserve">sugarbeet_pct_extern * 0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1 – sugarcane_pct_extern) * 0.6</t>
   </si>
   <si>
     <t xml:space="preserve">(1 – sugarbeet_pct_extern) * 0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">palmfruit_pct_extern * 0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExternalPalmOil</t>
   </si>
   <si>
-    <t xml:space="preserve">palmfruit_pct_extern * 0.2</t>
+    <t xml:space="preserve">rapeseed_pct_extern * 0.3</t>
   </si>
   <si>
     <t xml:space="preserve">ExternalRapeSeed</t>
   </si>
   <si>
-    <t xml:space="preserve">rapeseed_pct_extern * 0.3</t>
+    <t xml:space="preserve">soybean_pct_extern * 0.5</t>
   </si>
   <si>
     <t xml:space="preserve">ExternalSoyBean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean_pct_extern * 0.5</t>
   </si>
   <si>
     <t xml:space="preserve">(1 – palmfruit_pct_extern) * 0.2</t>
@@ -985,7 +1018,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1165,7 +1198,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>27</v>
@@ -1179,7 +1212,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>33</v>
@@ -1190,7 +1223,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>35</v>
@@ -1201,7 +1234,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>36</v>
@@ -1212,7 +1245,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
@@ -1223,7 +1256,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>38</v>
@@ -1234,7 +1267,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>39</v>
@@ -1245,7 +1278,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>40</v>
@@ -1256,7 +1289,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>41</v>
@@ -1267,7 +1300,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>42</v>
@@ -1278,7 +1311,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>43</v>
@@ -1289,7 +1322,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>44</v>
@@ -1300,7 +1333,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>45</v>
@@ -1311,7 +1344,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>46</v>
@@ -1322,7 +1355,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>33</v>
@@ -1333,7 +1366,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>35</v>
@@ -1344,7 +1377,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>36</v>
@@ -1355,7 +1388,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>37</v>
@@ -1366,7 +1399,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>38</v>
@@ -1377,7 +1410,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>39</v>
@@ -1388,7 +1421,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>40</v>
@@ -1399,7 +1432,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>41</v>
@@ -1410,7 +1443,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>42</v>
@@ -1421,7 +1454,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>43</v>
@@ -1432,7 +1465,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>44</v>
@@ -1443,7 +1476,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>45</v>
@@ -1454,7 +1487,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>46</v>
@@ -1494,22 +1527,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>6</v>
@@ -1517,42 +1550,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +1620,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>52</v>
@@ -1599,24 +1632,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1652,19 +1685,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
@@ -1675,44 +1708,44 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2394,10 +2427,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2406,18 +2439,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="15.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="9" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="6.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="21.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="5.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="10.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="9" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="6.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="21.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="14" style="9" width="16.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2449,328 +2481,310 @@
         <v>108</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>119</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="G8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="G9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>131</v>
+      <c r="G11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>131</v>
+      <c r="G12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>131</v>
+      <c r="G13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>131</v>
+      <c r="G14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>131</v>
+      <c r="G15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>66</v>
@@ -2778,257 +2792,254 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="G16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>131</v>
+      <c r="G19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>131</v>
+      <c r="G20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>131</v>
+      <c r="G21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>131</v>
+      <c r="G22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>131</v>
+      <c r="G23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>131</v>
+      <c r="G24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>131</v>
+      <c r="G25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>131</v>
+      <c r="G26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>131</v>
+      <c r="G27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>131</v>
+      <c r="G28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>131</v>
+      <c r="G29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>131</v>
+      <c r="G30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3047,586 +3058,580 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="4.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="9.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="7.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="7.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="6.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="5.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="9" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="7.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="7.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="5.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="22" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U1" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="0"/>
+      <c r="R2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="0"/>
+      <c r="R3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="K4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" s="0"/>
-      <c r="S2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="0"/>
-      <c r="S3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
+      <c r="C13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="s">
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="C37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>159</v>
+      <c r="F39" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>160</v>
+      <c r="A40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3678,13 +3683,13 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>102</v>
@@ -3696,19 +3701,19 @@
         <v>50</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>30</v>
@@ -3717,31 +3722,31 @@
         <v>53</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3754,10 @@
         <v>71</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L2" s="9" t="n">
         <v>0.1285149</v>
@@ -3769,10 +3774,10 @@
         <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>0.1164551</v>
@@ -3789,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>0.1144008</v>
@@ -3809,10 +3814,10 @@
         <v>71</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>0.0810668396092578</v>
@@ -3829,10 +3834,10 @@
         <v>71</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>0.0810241451952682</v>
@@ -3849,10 +3854,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>0.0837198399276661</v>
@@ -3869,16 +3874,16 @@
         <v>71</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="9" t="n">
         <v>0.0125177909103313</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S8" s="9" t="n">
         <v>2011</v>
@@ -3889,16 +3894,16 @@
         <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>0.0125698253799858</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S9" s="9" t="n">
         <v>2012</v>
@@ -3909,16 +3914,16 @@
         <v>71</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="9" t="n">
         <v>0.012779585379132</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S10" s="9" t="n">
         <v>2013</v>
@@ -3929,10 +3934,10 @@
         <v>71</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L11" s="9" t="n">
         <v>0.290807572629191</v>
@@ -3949,10 +3954,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>0.284819139846198</v>
@@ -3969,10 +3974,10 @@
         <v>71</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="9" t="n">
         <v>0.338398023755541</v>
@@ -3989,10 +3994,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" s="9" t="n">
         <v>510.783090193891</v>
@@ -4009,10 +4014,10 @@
         <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L15" s="9" t="n">
         <v>510.783090193891</v>
@@ -4029,10 +4034,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L16" s="9" t="n">
         <v>510.783090193891</v>
@@ -4049,10 +4054,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L17" s="9" t="n">
         <v>344.554124680908</v>
@@ -4069,10 +4074,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>344.554124680908</v>
@@ -4089,10 +4094,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L19" s="9" t="n">
         <v>344.554124680908</v>
@@ -4109,16 +4114,16 @@
         <v>77</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L20" s="9" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S20" s="9" t="n">
         <v>2011</v>
@@ -4129,16 +4134,16 @@
         <v>77</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S21" s="9" t="n">
         <v>2012</v>
@@ -4149,16 +4154,16 @@
         <v>77</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>54.7726040228444</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S22" s="9" t="n">
         <v>2013</v>
@@ -4169,10 +4174,10 @@
         <v>77</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L23" s="9" t="n">
         <v>876.195771627155</v>
@@ -4189,10 +4194,10 @@
         <v>77</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L24" s="9" t="n">
         <v>876.195771627155</v>
@@ -4209,10 +4214,10 @@
         <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>876.195771627155</v>
@@ -4229,10 +4234,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>65</v>
@@ -4246,10 +4251,10 @@
         <v>80</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>65</v>
@@ -4263,10 +4268,10 @@
         <v>80</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>65</v>
@@ -4280,10 +4285,10 @@
         <v>80</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L29" s="9" t="n">
         <v>16.2712344327208</v>
@@ -4300,10 +4305,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L30" s="9" t="n">
         <v>16.2712344327208</v>
@@ -4320,10 +4325,10 @@
         <v>80</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L31" s="9" t="n">
         <v>16.2712344327208</v>
@@ -4340,16 +4345,16 @@
         <v>80</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L32" s="9" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S32" s="9" t="n">
         <v>2011</v>
@@ -4360,16 +4365,16 @@
         <v>80</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L33" s="9" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S33" s="9" t="n">
         <v>2012</v>
@@ -4380,16 +4385,16 @@
         <v>80</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L34" s="9" t="n">
         <v>0.219509168287431</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S34" s="9" t="n">
         <v>2013</v>
@@ -4400,10 +4405,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>61</v>
@@ -4417,10 +4422,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>61</v>
@@ -4434,10 +4439,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>61</v>
@@ -4451,10 +4456,10 @@
         <v>82</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L38" s="9" t="n">
         <v>1.7056684219636</v>
@@ -4471,10 +4476,10 @@
         <v>82</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L39" s="9" t="n">
         <v>1.53914935457665</v>
@@ -4491,10 +4496,10 @@
         <v>82</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L40" s="9" t="n">
         <v>1.49408548045622</v>
@@ -4511,10 +4516,10 @@
         <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L41" s="9" t="n">
         <v>1.07593102225148</v>
@@ -4531,10 +4536,10 @@
         <v>82</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L42" s="9" t="n">
         <v>1.07086983533865</v>
@@ -4551,10 +4556,10 @@
         <v>82</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L43" s="9" t="n">
         <v>1.09338948158698</v>
@@ -4571,16 +4576,16 @@
         <v>82</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L44" s="9" t="n">
         <v>0.304586264843106</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S44" s="9" t="n">
         <v>2011</v>
@@ -4591,16 +4596,16 @@
         <v>82</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L45" s="9" t="n">
         <v>0.304574055933306</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S45" s="9" t="n">
         <v>2012</v>
@@ -4611,16 +4616,16 @@
         <v>82</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L46" s="9" t="n">
         <v>0.305988215559662</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S46" s="9" t="n">
         <v>2013</v>
@@ -4631,10 +4636,10 @@
         <v>82</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L47" s="9" t="n">
         <v>3.43079190132787</v>
@@ -4651,10 +4656,10 @@
         <v>82</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L48" s="9" t="n">
         <v>3.34609968866095</v>
@@ -4671,10 +4676,10 @@
         <v>82</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L49" s="9" t="n">
         <v>3.92845513835257</v>
@@ -4691,10 +4696,10 @@
         <v>87</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L50" s="9" t="n">
         <v>24.4178275844343</v>
@@ -4711,10 +4716,10 @@
         <v>87</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L51" s="9" t="n">
         <v>22.1264702457203</v>
@@ -4731,10 +4736,10 @@
         <v>87</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L52" s="9" t="n">
         <v>21.7361460669016</v>
@@ -4751,10 +4756,10 @@
         <v>87</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L53" s="9" t="n">
         <v>3.56694094280734</v>
@@ -4771,10 +4776,10 @@
         <v>87</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L54" s="9" t="n">
         <v>3.5650623885918</v>
@@ -4791,10 +4796,10 @@
         <v>87</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L55" s="9" t="n">
         <v>3.68367295681731</v>
@@ -4811,16 +4816,16 @@
         <v>87</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L56" s="9" t="n">
         <v>1.35192141831578</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S56" s="9" t="n">
         <v>2011</v>
@@ -4831,16 +4836,16 @@
         <v>87</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L57" s="9" t="n">
         <v>1.35754114103847</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S57" s="9" t="n">
         <v>2012</v>
@@ -4851,16 +4856,16 @@
         <v>87</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L58" s="9" t="n">
         <v>1.38019522094625</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S58" s="9" t="n">
         <v>2013</v>
@@ -4871,10 +4876,10 @@
         <v>87</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L59" s="9" t="n">
         <v>52.3453630732544</v>
@@ -4891,10 +4896,10 @@
         <v>87</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L60" s="9" t="n">
         <v>51.2674451723156</v>
@@ -4911,10 +4916,10 @@
         <v>87</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L61" s="9" t="n">
         <v>60.9116442759974</v>
@@ -4931,10 +4936,10 @@
         <v>89</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L62" s="9" t="n">
         <v>1.15663393821004</v>
@@ -4951,10 +4956,10 @@
         <v>89</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L63" s="9" t="n">
         <v>1.0480959590078</v>
@@ -4971,10 +4976,10 @@
         <v>89</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L64" s="9" t="n">
         <v>1.0296069189585</v>
@@ -4991,10 +4996,10 @@
         <v>89</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L65" s="9" t="n">
         <v>2.43200518827774</v>
@@ -5011,10 +5016,10 @@
         <v>89</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L66" s="9" t="n">
         <v>2.43072435585805</v>
@@ -5031,10 +5036,10 @@
         <v>89</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L67" s="9" t="n">
         <v>2.51159519782998</v>
@@ -5051,16 +5056,16 @@
         <v>89</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L68" s="9" t="n">
         <v>0.625889545516565</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S68" s="9" t="n">
         <v>2011</v>
@@ -5071,16 +5076,16 @@
         <v>89</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L69" s="9" t="n">
         <v>0.628491268999291</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S69" s="9" t="n">
         <v>2012</v>
@@ -5091,16 +5096,16 @@
         <v>89</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L70" s="9" t="n">
         <v>0.638979268956598</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S70" s="9" t="n">
         <v>2013</v>
@@ -5111,10 +5116,10 @@
         <v>89</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L71" s="9" t="n">
         <v>7.27018931572978</v>
@@ -5131,10 +5136,10 @@
         <v>89</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L72" s="9" t="n">
         <v>7.12047849615494</v>
@@ -5151,10 +5156,10 @@
         <v>89</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L73" s="9" t="n">
         <v>8.45995059388853</v>
@@ -5171,10 +5176,10 @@
         <v>91</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L74" s="9" t="n">
         <v>1.28514882023338</v>
@@ -5191,10 +5196,10 @@
         <v>91</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L75" s="9" t="n">
         <v>1.16455106556423</v>
@@ -5211,10 +5216,10 @@
         <v>91</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L76" s="9" t="n">
         <v>1.14400768773166</v>
@@ -5231,10 +5236,10 @@
         <v>91</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L77" s="9" t="n">
         <v>1.62133679218516</v>
@@ -5251,10 +5256,10 @@
         <v>91</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L78" s="9" t="n">
         <v>1.62048290390536</v>
@@ -5271,10 +5276,10 @@
         <v>91</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L79" s="9" t="n">
         <v>1.67439679855332</v>
@@ -5291,16 +5296,16 @@
         <v>91</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L80" s="9" t="n">
         <v>0.876245363723192</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S80" s="9" t="n">
         <v>2011</v>
@@ -5311,16 +5316,16 @@
         <v>91</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L81" s="9" t="n">
         <v>0.879887776599008</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S81" s="9" t="n">
         <v>2012</v>
@@ -5331,16 +5336,16 @@
         <v>91</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L82" s="9" t="n">
         <v>0.894570976539237</v>
       </c>
       <c r="R82" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S82" s="9" t="n">
         <v>2013</v>
@@ -5351,10 +5356,10 @@
         <v>91</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L83" s="9" t="n">
         <v>8.72422717887574</v>
@@ -5371,10 +5376,10 @@
         <v>91</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L84" s="9" t="n">
         <v>8.54457419538593</v>
@@ -5391,10 +5396,10 @@
         <v>91</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L85" s="9" t="n">
         <v>10.1519407126662</v>
@@ -5411,10 +5416,10 @@
         <v>93</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L86" s="9" t="n">
         <v>11.7274304598456</v>
@@ -5431,10 +5436,10 @@
         <v>93</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L87" s="9" t="n">
         <v>7.47666590379534</v>
@@ -5451,10 +5456,10 @@
         <v>93</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L88" s="9" t="n">
         <v>1.2054039882177</v>
@@ -5471,10 +5476,10 @@
         <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L89" s="9" t="n">
         <v>24.1961621014873</v>
@@ -5491,10 +5496,10 @@
         <v>93</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L90" s="9" t="n">
         <v>10.6269339576279</v>
@@ -5511,10 +5516,10 @@
         <v>93</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L91" s="9" t="n">
         <v>7.47272826578086</v>
@@ -5531,16 +5536,16 @@
         <v>93</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L92" s="9" t="n">
         <v>1.21041466124265</v>
       </c>
       <c r="R92" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S92" s="9" t="n">
         <v>2011</v>
@@ -5551,16 +5556,16 @@
         <v>93</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L93" s="9" t="n">
         <v>23.6979044768967</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S93" s="9" t="n">
         <v>2012</v>
@@ -5571,16 +5576,16 @@
         <v>93</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L94" s="9" t="n">
         <v>10.439468481919</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S94" s="9" t="n">
         <v>2013</v>
@@ -5591,10 +5596,10 @@
         <v>93</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L95" s="9" t="n">
         <v>7.7213479108775</v>
@@ -5611,10 +5616,10 @@
         <v>93</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L96" s="9" t="n">
         <v>1.23061355586794</v>
@@ -5631,10 +5636,10 @@
         <v>93</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L97" s="9" t="n">
         <v>28.1558467119165</v>
@@ -5695,13 +5700,13 @@
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>102</v>
@@ -5713,19 +5718,19 @@
         <v>50</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>30</v>
@@ -5734,31 +5739,31 @@
         <v>53</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -5767,13 +5772,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14.639493</v>
@@ -5782,7 +5787,7 @@
         <v>70</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,13 +5795,13 @@
         <v>80</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>7.7147</v>
@@ -5805,7 +5810,7 @@
         <v>70</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,10 +5818,10 @@
         <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1.4</v>
@@ -5825,7 +5830,7 @@
         <v>70</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,10 +5838,10 @@
         <v>95</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>52.14</v>
@@ -5845,7 +5850,7 @@
         <v>70</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,10 +5858,10 @@
         <v>98</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1077.676</v>
@@ -5865,7 +5870,7 @@
         <v>70</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,10 +5878,10 @@
         <v>60</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="19" t="n">
         <v>4.7689</v>
@@ -5885,7 +5890,7 @@
         <v>70</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ7" s="0"/>
     </row>
@@ -5894,13 +5899,13 @@
         <v>80</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0.423619</v>
@@ -5909,7 +5914,7 @@
         <v>70</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,13 +5922,13 @@
         <v>80</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0.198178</v>
@@ -5932,7 +5937,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,10 +5945,10 @@
         <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0.7</v>
@@ -5952,7 +5957,7 @@
         <v>70</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,10 +5965,10 @@
         <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>201.02</v>
@@ -5972,7 +5977,7 @@
         <v>70</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,10 +5985,10 @@
         <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>1245.42</v>
@@ -5992,7 +5997,7 @@
         <v>70</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,10 +6005,10 @@
         <v>61</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L13" s="19" t="n">
         <v>2.690051</v>
@@ -6012,7 +6017,7 @@
         <v>70</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ13" s="0"/>
     </row>
@@ -6021,13 +6026,13 @@
         <v>80</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0.483017507961291</v>
@@ -6036,7 +6041,7 @@
         <v>70</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,13 +6049,13 @@
         <v>80</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0.318721995608352</v>
@@ -6059,7 +6064,7 @@
         <v>70</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,10 +6072,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0.7</v>
@@ -6079,7 +6084,7 @@
         <v>70</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,10 +6092,10 @@
         <v>95</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>139.440647380989</v>
@@ -6099,7 +6104,7 @@
         <v>70</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,10 +6112,10 @@
         <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>2886.98274968357</v>
@@ -6119,7 +6124,7 @@
         <v>70</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,10 +6132,10 @@
         <v>62</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L19" s="19" t="n">
         <v>4.94047619047619</v>
@@ -6139,7 +6144,7 @@
         <v>70</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ19" s="0"/>
     </row>
@@ -6148,13 +6153,13 @@
         <v>80</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>31.1</v>
@@ -6163,7 +6168,7 @@
         <v>69</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,13 +6176,13 @@
         <v>80</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>21.2</v>
@@ -6186,7 +6191,7 @@
         <v>69</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,10 +6199,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>0.7</v>
@@ -6206,7 +6211,7 @@
         <v>69</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,10 +6219,10 @@
         <v>95</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>143.0069</v>
@@ -6226,7 +6231,7 @@
         <v>69</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,10 +6239,10 @@
         <v>98</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>562</v>
@@ -6246,7 +6251,7 @@
         <v>69</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,10 +6259,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="19" t="n">
         <v>15</v>
@@ -6266,7 +6271,7 @@
         <v>69</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ25" s="0"/>
     </row>
@@ -6275,13 +6280,13 @@
         <v>80</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>11.000603</v>
@@ -6290,7 +6295,7 @@
         <v>69</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,13 +6303,13 @@
         <v>80</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>1.1</v>
@@ -6313,7 +6318,7 @@
         <v>69</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,10 +6326,10 @@
         <v>82</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>0.7</v>
@@ -6333,7 +6338,7 @@
         <v>69</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,10 +6346,10 @@
         <v>95</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>218.0069</v>
@@ -6353,7 +6358,7 @@
         <v>69</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6361,10 +6366,10 @@
         <v>98</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>5054</v>
@@ -6373,7 +6378,7 @@
         <v>69</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,10 +6386,10 @@
         <v>64</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L31" s="19" t="n">
         <v>11.5</v>
@@ -6393,7 +6398,7 @@
         <v>69</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ31" s="0"/>
     </row>
@@ -6402,13 +6407,13 @@
         <v>80</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>4.388</v>
@@ -6417,7 +6422,7 @@
         <v>69</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6425,13 +6430,13 @@
         <v>80</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>4.34</v>
@@ -6440,7 +6445,7 @@
         <v>69</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,10 +6453,10 @@
         <v>82</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>0.7</v>
@@ -6460,7 +6465,7 @@
         <v>69</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,10 +6473,10 @@
         <v>95</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>421.0069</v>
@@ -6480,7 +6485,7 @@
         <v>69</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,10 +6493,10 @@
         <v>98</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>14662</v>
@@ -6500,7 +6505,7 @@
         <v>69</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,10 +6513,10 @@
         <v>65</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L37" s="19" t="n">
         <v>3.4</v>
@@ -6520,7 +6525,7 @@
         <v>69</v>
       </c>
       <c r="S37" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AMJ37" s="0"/>
     </row>
@@ -6529,13 +6534,13 @@
         <v>80</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>8.69</v>
@@ -6544,7 +6549,7 @@
         <v>69</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,13 +6557,13 @@
         <v>80</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>2.79</v>
@@ -6567,7 +6572,7 @@
         <v>69</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,10 +6580,10 @@
         <v>82</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0.7</v>
@@ -6587,7 +6592,7 @@
         <v>69</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,10 +6600,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>407.0069</v>
@@ -6607,7 +6612,7 @@
         <v>69</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,10 +6620,10 @@
         <v>98</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>14562</v>
@@ -6627,7 +6632,7 @@
         <v>69</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,10 +6640,10 @@
         <v>66</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>3.26</v>
@@ -6647,7 +6652,7 @@
         <v>69</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6689,28 +6694,28 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>32</v>
@@ -6721,121 +6726,121 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -6844,24 +6849,24 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>70</v>
@@ -6873,12 +6878,12 @@
         <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>70</v>
@@ -6890,12 +6895,12 @@
         <v>70</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>69</v>
@@ -6907,12 +6912,12 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>69</v>
@@ -6924,12 +6929,12 @@
         <v>69</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>69</v>
@@ -6941,12 +6946,12 @@
         <v>69</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>69</v>
@@ -6958,7 +6963,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -6973,16 +6978,16 @@
         <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,50 +6998,50 @@
         <v>70</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,13 +7052,13 @@
         <v>69</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>39</v>
@@ -7067,13 +7072,13 @@
         <v>70</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>38</v>
@@ -7095,10 +7100,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7107,43 +7112,74 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="16.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="18.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="25.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="25.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="18.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="15.55"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>182</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>70</v>
@@ -7151,7 +7187,7 @@
       <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="F2" s="9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -7160,10 +7196,10 @@
         <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>70</v>
@@ -7171,7 +7207,7 @@
       <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="F3" s="9" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7180,10 +7216,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>70</v>
@@ -7191,7 +7227,7 @@
       <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="F4" s="9" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -7200,10 +7236,10 @@
         <v>63</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>69</v>
@@ -7211,7 +7247,7 @@
       <c r="E5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="9" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -7220,10 +7256,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
@@ -7231,7 +7267,7 @@
       <c r="E6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="F6" s="9" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -7240,10 +7276,10 @@
         <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -7251,7 +7287,7 @@
       <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="F7" s="9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7260,10 +7296,10 @@
         <v>66</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>69</v>
@@ -7271,20 +7307,20 @@
       <c r="E8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="n">
+      <c r="F8" s="14" t="n">
         <v>0.9</v>
       </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>69</v>
@@ -7293,21 +7329,42 @@
         <v>69</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>69</v>
@@ -7316,21 +7373,21 @@
         <v>69</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>69</v>
@@ -7339,21 +7396,21 @@
         <v>69</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>69</v>
@@ -7362,21 +7419,21 @@
         <v>69</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>69</v>
@@ -7385,21 +7442,21 @@
         <v>69</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>69</v>
@@ -7408,21 +7465,21 @@
         <v>69</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>69</v>
@@ -7431,21 +7488,21 @@
         <v>69</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>69</v>
@@ -7454,21 +7511,21 @@
         <v>69</v>
       </c>
       <c r="F16" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>70</v>
@@ -7477,21 +7534,21 @@
         <v>70</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>70</v>
@@ -7500,21 +7557,21 @@
         <v>70</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>70</v>
@@ -7523,21 +7580,21 @@
         <v>70</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>70</v>
@@ -7546,21 +7603,21 @@
         <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>70</v>
@@ -7569,21 +7626,21 @@
         <v>70</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>70</v>
@@ -7592,10 +7649,10 @@
         <v>70</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,10 +7660,10 @@
         <v>69</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>69</v>
@@ -7614,7 +7671,7 @@
       <c r="E23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="F23" s="9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -7623,10 +7680,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>69</v>
@@ -7634,20 +7691,20 @@
       <c r="E24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="n">
+      <c r="F24" s="14" t="n">
         <v>0.8</v>
       </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>70</v>
@@ -7655,7 +7712,7 @@
       <c r="E25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="F25" s="9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
+++ b/backend_tests/z_input_files/v2/Biofuel_NIS.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="241">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -511,9 +511,6 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sugarbeet</t>
   </si>
   <si>
@@ -586,13 +583,10 @@
     <t xml:space="preserve">NewSubsystemType</t>
   </si>
   <si>
-    <t xml:space="preserve">NewSystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">NewDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">NewGelocationRef</t>
+    <t xml:space="preserve">NewGeolocationRef</t>
   </si>
   <si>
     <t xml:space="preserve">NewGeolocationCode</t>
@@ -608,21 +602,6 @@
   </si>
   <si>
     <t xml:space="preserve">ExternalWheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
   </si>
   <si>
     <t xml:space="preserve">maize_pct_extern * 0.8</t>
@@ -983,11 +962,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1177,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>27</v>
@@ -1212,7 +1191,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>33</v>
@@ -1223,7 +1202,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>35</v>
@@ -1234,7 +1213,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>36</v>
@@ -1245,7 +1224,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>37</v>
@@ -1256,7 +1235,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>38</v>
@@ -1267,7 +1246,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>39</v>
@@ -1278,7 +1257,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>40</v>
@@ -1289,7 +1268,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>41</v>
@@ -1300,7 +1279,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>42</v>
@@ -1311,7 +1290,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>43</v>
@@ -1322,7 +1301,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>44</v>
@@ -1333,7 +1312,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>45</v>
@@ -1344,7 +1323,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>46</v>
@@ -1355,7 +1334,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>33</v>
@@ -1366,7 +1345,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>35</v>
@@ -1377,7 +1356,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>36</v>
@@ -1388,7 +1367,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>37</v>
@@ -1399,7 +1378,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>38</v>
@@ -1410,7 +1389,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>39</v>
@@ -1421,7 +1400,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>40</v>
@@ -1432,7 +1411,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>41</v>
@@ -1443,7 +1422,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>42</v>
@@ -1454,7 +1433,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>43</v>
@@ -1465,7 +1444,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>44</v>
@@ -1476,7 +1455,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>45</v>
@@ -1487,7 +1466,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>46</v>
@@ -1527,22 +1506,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>6</v>
@@ -1550,42 +1529,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1599,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>113</v>
@@ -1632,24 +1611,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1685,19 +1664,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
@@ -1708,44 +1687,44 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3650,2004 +3629,2002 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:AMJ97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="5.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="5.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="5.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="3.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="9" width="4.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="3.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="9.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="5.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="15.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="12.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="5.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="5.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="9" width="4.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="3.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="15.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="21" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.1285149</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.1164551</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.1144008</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0.0810668396092578</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.0810241451952682</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0.0837198399276661</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.0125177909103313</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+      <c r="R8" s="9" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.0125698253799858</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.012779585379132</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.290807572629191</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0.284819139846198</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0.338398023755541</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="9" t="n">
-        <v>0.1285149</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="F14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>510.783090193891</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="R14" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>0.1164551</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="F15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>510.783090193891</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="R15" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>0.1144008</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>510.783090193891</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="R16" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>0.0810668396092578</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>344.554124680908</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="R17" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0.0810241451952682</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="F18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>344.554124680908</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="9" t="n">
+      <c r="R18" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0.0837198399276661</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="F19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>344.554124680908</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="R19" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0.0125177909103313</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S8" s="9" t="n">
+      <c r="F20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>54.7726040228444</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R20" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="9" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>0.0125698253799858</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S9" s="9" t="n">
+      <c r="F21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>54.7726040228444</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R21" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="9" t="n">
-        <v>0.012779585379132</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" s="9" t="n">
+      <c r="F22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>54.7726040228444</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R22" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="9" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0.290807572629191</v>
-      </c>
-      <c r="R11" s="9" t="s">
+      <c r="F23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>876.195771627155</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="9" t="n">
+      <c r="R23" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>0.284819139846198</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="F24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>876.195771627155</v>
+      </c>
+      <c r="Q24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="9" t="n">
+      <c r="R24" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="9" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>0.338398023755541</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="F25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>876.195771627155</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="R25" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="9" t="n">
-        <v>510.783090193891</v>
-      </c>
-      <c r="R14" s="9" t="s">
+      <c r="F26" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="R26" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="9" t="n">
-        <v>510.783090193891</v>
-      </c>
-      <c r="R15" s="9" t="s">
+      <c r="F27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="9" t="n">
+      <c r="R27" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="9" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>510.783090193891</v>
-      </c>
-      <c r="R16" s="9" t="s">
+      <c r="F28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="9" t="n">
+      <c r="R28" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="9" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="9" t="n">
-        <v>344.554124680908</v>
-      </c>
-      <c r="R17" s="9" t="s">
+      <c r="F29" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>16.2712344327208</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="9" t="n">
+      <c r="R29" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="9" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="9" t="n">
-        <v>344.554124680908</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="F30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>16.2712344327208</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="R30" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="9" t="n">
-        <v>344.554124680908</v>
-      </c>
-      <c r="R19" s="9" t="s">
+      <c r="F31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>16.2712344327208</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S19" s="9" t="n">
+      <c r="R31" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="9" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="9" t="n">
-        <v>54.7726040228444</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S20" s="9" t="n">
+      <c r="F32" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>0.219509168287431</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R32" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>54.7726040228444</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S21" s="9" t="n">
+      <c r="F33" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>0.219509168287431</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R33" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="9" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>54.7726040228444</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S22" s="9" t="n">
+      <c r="F34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0.219509168287431</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R34" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="9" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="9" t="n">
-        <v>876.195771627155</v>
-      </c>
-      <c r="R23" s="9" t="s">
+      <c r="F35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="9" t="n">
+      <c r="R35" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="9" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="9" t="n">
-        <v>876.195771627155</v>
-      </c>
-      <c r="R24" s="9" t="s">
+      <c r="F36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="9" t="n">
+      <c r="R36" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="9" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="9" t="n">
-        <v>876.195771627155</v>
-      </c>
-      <c r="R25" s="9" t="s">
+      <c r="F37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S25" s="9" t="n">
+      <c r="R37" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="9" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" s="9" t="s">
+      <c r="F38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>1.7056684219636</v>
+      </c>
+      <c r="Q38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="9" t="n">
+      <c r="R38" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="9" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R27" s="9" t="s">
+      <c r="F39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>1.53914935457665</v>
+      </c>
+      <c r="Q39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S27" s="9" t="n">
+      <c r="R39" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="9" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R28" s="9" t="s">
+      <c r="F40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>1.49408548045622</v>
+      </c>
+      <c r="Q40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S28" s="9" t="n">
+      <c r="R40" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="9" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="9" t="n">
-        <v>16.2712344327208</v>
-      </c>
-      <c r="R29" s="9" t="s">
+      <c r="F41" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>1.07593102225148</v>
+      </c>
+      <c r="Q41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="9" t="n">
+      <c r="R41" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="9" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="9" t="n">
-        <v>16.2712344327208</v>
-      </c>
-      <c r="R30" s="9" t="s">
+      <c r="F42" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>1.07086983533865</v>
+      </c>
+      <c r="Q42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="9" t="n">
+      <c r="R42" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="9" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="9" t="n">
-        <v>16.2712344327208</v>
-      </c>
-      <c r="R31" s="9" t="s">
+      <c r="F43" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>1.09338948158698</v>
+      </c>
+      <c r="Q43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="9" t="n">
+      <c r="R43" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="9" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L32" s="9" t="n">
-        <v>0.219509168287431</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S32" s="9" t="n">
+      <c r="F44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>0.304586264843106</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R44" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="9" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="9" t="n">
-        <v>0.219509168287431</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S33" s="9" t="n">
+      <c r="F45" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.304574055933306</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R45" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="9" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="9" t="n">
-        <v>0.219509168287431</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S34" s="9" t="n">
+      <c r="F46" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0.305988215559662</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R46" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="9" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R35" s="9" t="s">
+      <c r="F47" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>3.43079190132787</v>
+      </c>
+      <c r="Q47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S35" s="9" t="n">
+      <c r="R47" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="9" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R36" s="9" t="s">
+      <c r="F48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>3.34609968866095</v>
+      </c>
+      <c r="Q48" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S36" s="9" t="n">
+      <c r="R48" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="9" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="R37" s="9" t="s">
+      <c r="F49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>3.92845513835257</v>
+      </c>
+      <c r="Q49" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S37" s="9" t="n">
+      <c r="R49" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="9" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>1.7056684219636</v>
-      </c>
-      <c r="R38" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>24.4178275844343</v>
+      </c>
+      <c r="Q50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S38" s="9" t="n">
+      <c r="R50" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="9" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L39" s="9" t="n">
-        <v>1.53914935457665</v>
-      </c>
-      <c r="R39" s="9" t="s">
+      <c r="F51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>22.1264702457203</v>
+      </c>
+      <c r="Q51" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S39" s="9" t="n">
+      <c r="R51" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="9" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>1.49408548045622</v>
-      </c>
-      <c r="R40" s="9" t="s">
+      <c r="F52" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>21.7361460669016</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S40" s="9" t="n">
+      <c r="R52" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="9" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>1.07593102225148</v>
-      </c>
-      <c r="R41" s="9" t="s">
+      <c r="F53" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>3.56694094280734</v>
+      </c>
+      <c r="Q53" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S41" s="9" t="n">
+      <c r="R53" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="9" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="9" t="n">
-        <v>1.07086983533865</v>
-      </c>
-      <c r="R42" s="9" t="s">
+      <c r="F54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>3.5650623885918</v>
+      </c>
+      <c r="Q54" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S42" s="9" t="n">
+      <c r="R54" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="9" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="9" t="n">
-        <v>1.09338948158698</v>
-      </c>
-      <c r="R43" s="9" t="s">
+      <c r="F55" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>3.68367295681731</v>
+      </c>
+      <c r="Q55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="9" t="n">
+      <c r="R55" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="9" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L44" s="9" t="n">
-        <v>0.304586264843106</v>
-      </c>
-      <c r="R44" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S44" s="9" t="n">
+      <c r="F56" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>1.35192141831578</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R56" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="9" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L45" s="9" t="n">
-        <v>0.304574055933306</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S45" s="9" t="n">
+      <c r="F57" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>1.35754114103847</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R57" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="9" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L46" s="9" t="n">
-        <v>0.305988215559662</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S46" s="9" t="n">
+      <c r="F58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>1.38019522094625</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R58" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="9" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L47" s="9" t="n">
-        <v>3.43079190132787</v>
-      </c>
-      <c r="R47" s="9" t="s">
+      <c r="F59" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>52.3453630732544</v>
+      </c>
+      <c r="Q59" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S47" s="9" t="n">
+      <c r="R59" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="9" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L48" s="9" t="n">
-        <v>3.34609968866095</v>
-      </c>
-      <c r="R48" s="9" t="s">
+      <c r="F60" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>51.2674451723156</v>
+      </c>
+      <c r="Q60" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S48" s="9" t="n">
+      <c r="R60" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="9" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L49" s="9" t="n">
-        <v>3.92845513835257</v>
-      </c>
-      <c r="R49" s="9" t="s">
+      <c r="F61" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>60.9116442759974</v>
+      </c>
+      <c r="Q61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S49" s="9" t="n">
+      <c r="R61" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="9" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L50" s="9" t="n">
-        <v>24.4178275844343</v>
-      </c>
-      <c r="R50" s="9" t="s">
+      <c r="F62" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>1.15663393821004</v>
+      </c>
+      <c r="Q62" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S50" s="9" t="n">
+      <c r="R62" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="9" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L51" s="9" t="n">
-        <v>22.1264702457203</v>
-      </c>
-      <c r="R51" s="9" t="s">
+      <c r="F63" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>1.0480959590078</v>
+      </c>
+      <c r="Q63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S51" s="9" t="n">
+      <c r="R63" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="9" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L52" s="9" t="n">
-        <v>21.7361460669016</v>
-      </c>
-      <c r="R52" s="9" t="s">
+      <c r="F64" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>1.0296069189585</v>
+      </c>
+      <c r="Q64" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S52" s="9" t="n">
+      <c r="R64" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="9" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L53" s="9" t="n">
-        <v>3.56694094280734</v>
-      </c>
-      <c r="R53" s="9" t="s">
+      <c r="F65" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>2.43200518827774</v>
+      </c>
+      <c r="Q65" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S53" s="9" t="n">
+      <c r="R65" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="9" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L54" s="9" t="n">
-        <v>3.5650623885918</v>
-      </c>
-      <c r="R54" s="9" t="s">
+      <c r="F66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>2.43072435585805</v>
+      </c>
+      <c r="Q66" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S54" s="9" t="n">
+      <c r="R66" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="9" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L55" s="9" t="n">
-        <v>3.68367295681731</v>
-      </c>
-      <c r="R55" s="9" t="s">
+      <c r="F67" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>2.51159519782998</v>
+      </c>
+      <c r="Q67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S55" s="9" t="n">
+      <c r="R67" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="9" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L56" s="9" t="n">
-        <v>1.35192141831578</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S56" s="9" t="n">
+      <c r="F68" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>0.625889545516565</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R68" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="9" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L57" s="9" t="n">
-        <v>1.35754114103847</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S57" s="9" t="n">
+      <c r="F69" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>0.628491268999291</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R69" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="9" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L58" s="9" t="n">
-        <v>1.38019522094625</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S58" s="9" t="n">
+      <c r="F70" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>0.638979268956598</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R70" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="9" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L59" s="9" t="n">
-        <v>52.3453630732544</v>
-      </c>
-      <c r="R59" s="9" t="s">
+      <c r="F71" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>7.27018931572978</v>
+      </c>
+      <c r="Q71" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S59" s="9" t="n">
+      <c r="R71" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="9" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L60" s="9" t="n">
-        <v>51.2674451723156</v>
-      </c>
-      <c r="R60" s="9" t="s">
+      <c r="F72" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>7.12047849615494</v>
+      </c>
+      <c r="Q72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S60" s="9" t="n">
+      <c r="R72" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="9" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L61" s="9" t="n">
-        <v>60.9116442759974</v>
-      </c>
-      <c r="R61" s="9" t="s">
+      <c r="F73" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>8.45995059388853</v>
+      </c>
+      <c r="Q73" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S61" s="9" t="n">
+      <c r="R73" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="9" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L62" s="9" t="n">
-        <v>1.15663393821004</v>
-      </c>
-      <c r="R62" s="9" t="s">
+      <c r="F74" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>1.28514882023338</v>
+      </c>
+      <c r="Q74" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S62" s="9" t="n">
+      <c r="R74" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="9" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="9" t="n">
-        <v>1.0480959590078</v>
-      </c>
-      <c r="R63" s="9" t="s">
+      <c r="F75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>1.16455106556423</v>
+      </c>
+      <c r="Q75" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S63" s="9" t="n">
+      <c r="R75" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="9" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L64" s="9" t="n">
-        <v>1.0296069189585</v>
-      </c>
-      <c r="R64" s="9" t="s">
+      <c r="F76" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>1.14400768773166</v>
+      </c>
+      <c r="Q76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S64" s="9" t="n">
+      <c r="R76" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="9" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L65" s="9" t="n">
-        <v>2.43200518827774</v>
-      </c>
-      <c r="R65" s="9" t="s">
+      <c r="F77" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>1.62133679218516</v>
+      </c>
+      <c r="Q77" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S65" s="9" t="n">
+      <c r="R77" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="9" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L66" s="9" t="n">
-        <v>2.43072435585805</v>
-      </c>
-      <c r="R66" s="9" t="s">
+      <c r="F78" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>1.62048290390536</v>
+      </c>
+      <c r="Q78" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S66" s="9" t="n">
+      <c r="R78" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="9" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L67" s="9" t="n">
-        <v>2.51159519782998</v>
-      </c>
-      <c r="R67" s="9" t="s">
+      <c r="F79" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>1.67439679855332</v>
+      </c>
+      <c r="Q79" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S67" s="9" t="n">
+      <c r="R79" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="9" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L68" s="9" t="n">
-        <v>0.625889545516565</v>
-      </c>
-      <c r="R68" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S68" s="9" t="n">
+      <c r="F80" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>0.876245363723192</v>
+      </c>
+      <c r="Q80" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R80" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="9" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L69" s="9" t="n">
-        <v>0.628491268999291</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S69" s="9" t="n">
+      <c r="F81" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>0.879887776599008</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R81" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="9" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L70" s="9" t="n">
-        <v>0.638979268956598</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S70" s="9" t="n">
+      <c r="F82" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0.894570976539237</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R82" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="9" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L71" s="9" t="n">
-        <v>7.27018931572978</v>
-      </c>
-      <c r="R71" s="9" t="s">
+      <c r="F83" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <v>8.72422717887574</v>
+      </c>
+      <c r="Q83" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S71" s="9" t="n">
+      <c r="R83" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="9" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L72" s="9" t="n">
-        <v>7.12047849615494</v>
-      </c>
-      <c r="R72" s="9" t="s">
+      <c r="F84" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>8.54457419538593</v>
+      </c>
+      <c r="Q84" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S72" s="9" t="n">
+      <c r="R84" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="9" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L73" s="9" t="n">
-        <v>8.45995059388853</v>
-      </c>
-      <c r="R73" s="9" t="s">
+      <c r="F85" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>10.1519407126662</v>
+      </c>
+      <c r="Q85" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S73" s="9" t="n">
+      <c r="R85" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="9" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L74" s="9" t="n">
-        <v>1.28514882023338</v>
-      </c>
-      <c r="R74" s="9" t="s">
+      <c r="F86" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K86" s="9" t="n">
+        <v>11.7274304598456</v>
+      </c>
+      <c r="Q86" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S74" s="9" t="n">
+      <c r="R86" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="9" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L75" s="9" t="n">
-        <v>1.16455106556423</v>
-      </c>
-      <c r="R75" s="9" t="s">
+      <c r="F87" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>7.47666590379534</v>
+      </c>
+      <c r="Q87" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S75" s="9" t="n">
+      <c r="R87" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="9" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L76" s="9" t="n">
-        <v>1.14400768773166</v>
-      </c>
-      <c r="R76" s="9" t="s">
+      <c r="F88" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>1.2054039882177</v>
+      </c>
+      <c r="Q88" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S76" s="9" t="n">
+      <c r="R88" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="9" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L77" s="9" t="n">
-        <v>1.62133679218516</v>
-      </c>
-      <c r="R77" s="9" t="s">
+      <c r="F89" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>24.1961621014873</v>
+      </c>
+      <c r="Q89" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S77" s="9" t="n">
+      <c r="R89" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="9" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L78" s="9" t="n">
-        <v>1.62048290390536</v>
-      </c>
-      <c r="R78" s="9" t="s">
+      <c r="F90" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>10.6269339576279</v>
+      </c>
+      <c r="Q90" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S78" s="9" t="n">
+      <c r="R90" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="9" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L79" s="9" t="n">
-        <v>1.67439679855332</v>
-      </c>
-      <c r="R79" s="9" t="s">
+      <c r="F91" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>7.47272826578086</v>
+      </c>
+      <c r="Q91" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S79" s="9" t="n">
+      <c r="R91" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="9" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L80" s="9" t="n">
-        <v>0.876245363723192</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S80" s="9" t="n">
+      <c r="F92" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>1.21041466124265</v>
+      </c>
+      <c r="Q92" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R92" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="9" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L81" s="9" t="n">
-        <v>0.879887776599008</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S81" s="9" t="n">
+      <c r="F93" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>23.6979044768967</v>
+      </c>
+      <c r="Q93" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R93" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="9" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L82" s="9" t="n">
-        <v>0.894570976539237</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S82" s="9" t="n">
+      <c r="F94" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>10.439468481919</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="R94" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="9" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L83" s="9" t="n">
-        <v>8.72422717887574</v>
-      </c>
-      <c r="R83" s="9" t="s">
+      <c r="F95" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>7.7213479108775</v>
+      </c>
+      <c r="Q95" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S83" s="9" t="n">
+      <c r="R95" s="9" t="n">
         <v>2011</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="9" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L84" s="9" t="n">
-        <v>8.54457419538593</v>
-      </c>
-      <c r="R84" s="9" t="s">
+      <c r="F96" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>1.23061355586794</v>
+      </c>
+      <c r="Q96" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S84" s="9" t="n">
+      <c r="R96" s="9" t="n">
         <v>2012</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="9" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L85" s="9" t="n">
-        <v>10.1519407126662</v>
-      </c>
-      <c r="R85" s="9" t="s">
+      <c r="F97" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>28.1558467119165</v>
+      </c>
+      <c r="Q97" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S85" s="9" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L86" s="9" t="n">
-        <v>11.7274304598456</v>
-      </c>
-      <c r="R86" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S86" s="9" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L87" s="9" t="n">
-        <v>7.47666590379534</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S87" s="9" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L88" s="9" t="n">
-        <v>1.2054039882177</v>
-      </c>
-      <c r="R88" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S88" s="9" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L89" s="9" t="n">
-        <v>24.1961621014873</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S89" s="9" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L90" s="9" t="n">
-        <v>10.6269339576279</v>
-      </c>
-      <c r="R90" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S90" s="9" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L91" s="9" t="n">
-        <v>7.47272826578086</v>
-      </c>
-      <c r="R91" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S91" s="9" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L92" s="9" t="n">
-        <v>1.21041466124265</v>
-      </c>
-      <c r="R92" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S92" s="9" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L93" s="9" t="n">
-        <v>23.6979044768967</v>
-      </c>
-      <c r="R93" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S93" s="9" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L94" s="9" t="n">
-        <v>10.439468481919</v>
-      </c>
-      <c r="R94" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S94" s="9" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L95" s="9" t="n">
-        <v>7.7213479108775</v>
-      </c>
-      <c r="R95" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S95" s="9" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L96" s="9" t="n">
-        <v>1.23061355586794</v>
-      </c>
-      <c r="R96" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S96" s="9" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L97" s="9" t="n">
-        <v>28.1558467119165</v>
-      </c>
-      <c r="R97" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S97" s="9" t="n">
+      <c r="R97" s="9" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -5670,988 +5647,991 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="14.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>14.639493</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>14.639493</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>7.7147</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1077.676</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>4.7689</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="B8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.423619</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>7.7147</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="K9" s="0" t="n">
+        <v>0.198178</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="C10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>52.14</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="C11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>201.02</v>
+      </c>
+      <c r="Q11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1077.676</v>
-      </c>
-      <c r="R6" s="0" t="s">
+      <c r="C12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1245.42</v>
+      </c>
+      <c r="Q12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="19" t="n">
-        <v>4.7689</v>
-      </c>
-      <c r="R7" s="19" t="s">
+    <row r="13" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>2.690051</v>
+      </c>
+      <c r="Q13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="R13" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="s">
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="B14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.483017507961291</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0.423619</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="C15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.318721995608352</v>
+      </c>
+      <c r="Q15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="R15" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>139.440647380989</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2886.98274968357</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>4.94047619047619</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="B20" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>0.198178</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="0" t="s">
+      <c r="K21" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="C22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="R10" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="0" t="s">
+      <c r="Q22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="17" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>201.02</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="0" t="s">
+      <c r="C23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>143.0069</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1245.42</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="S12" s="0" t="s">
+      <c r="C24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>562</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="19" t="n">
-        <v>2.690051</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="19" t="s">
+    <row r="25" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="B26" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>11.000603</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0.483017507961291</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="0" t="s">
+      <c r="C27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>218.0069</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>5054</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="B32" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>4.388</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>0.318721995608352</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="0" t="s">
+      <c r="K33" s="0" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="R16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="0" t="s">
+      <c r="Q34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>139.440647380989</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="0" t="s">
+      <c r="C35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>421.0069</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R35" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>2886.98274968357</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="S18" s="0" t="s">
+      <c r="C36" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>14662</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="19" t="n">
-        <v>4.94047619047619</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="19" t="s">
+    <row r="37" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="17" t="s">
+      <c r="AMI37" s="0"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="B38" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S20" s="0" t="s">
+      <c r="C39" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S21" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R40" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="0" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>407.0069</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>143.0069</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S23" s="0" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>14562</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R42" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>562</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="S25" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>11.000603</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>218.0069</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>5054</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="S31" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AMJ31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>4.388</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S33" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S34" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>421.0069</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>14662</v>
-      </c>
-      <c r="R36" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S36" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L37" s="19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="S37" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AMJ37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="9" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S38" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S40" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>407.0069</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S41" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>14562</v>
-      </c>
-      <c r="R42" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="0" t="n">
+      <c r="F43" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="0" t="n">
         <v>3.26</v>
       </c>
+      <c r="Q43" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="R43" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S43" s="0" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6694,28 +6674,28 @@
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>32</v>
@@ -6738,7 +6718,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,7 +6735,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,7 +6752,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,7 +6769,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,7 +6786,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +6803,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,7 +6820,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -6861,7 +6841,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,7 +6875,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,7 +6892,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6909,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,7 +6926,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,7 +6943,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -6984,10 +6964,10 @@
         <v>69</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,10 +6984,10 @@
         <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,7 +7004,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7021,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7058,7 +7038,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>39</v>
@@ -7078,7 +7058,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>38</v>
@@ -7102,8 +7082,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7115,60 +7095,59 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="25.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="18.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="9" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="9" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="14" style="9" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="0" width="15.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,7 +7158,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>70</v>
@@ -7199,7 +7178,7 @@
         <v>133</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>70</v>
@@ -7219,7 +7198,7 @@
         <v>135</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>70</v>
@@ -7239,7 +7218,7 @@
         <v>137</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>69</v>
@@ -7259,7 +7238,7 @@
         <v>139</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
@@ -7279,7 +7258,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -7299,7 +7278,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>69</v>
@@ -7320,41 +7299,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>196</v>
-      </c>
+      <c r="H9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
@@ -7364,7 +7327,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>69</v>
@@ -7373,10 +7336,10 @@
         <v>69</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,7 +7350,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>69</v>
@@ -7396,7 +7359,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>65</v>
@@ -7410,7 +7373,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>69</v>
@@ -7419,7 +7382,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>66</v>
@@ -7433,7 +7396,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>69</v>
@@ -7442,10 +7405,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,7 +7419,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>69</v>
@@ -7465,10 +7428,10 @@
         <v>69</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,7 +7442,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>69</v>
@@ -7488,7 +7451,7 @@
         <v>69</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>63</v>
@@ -7502,7 +7465,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>69</v>
@@ -7511,7 +7474,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>64</v>
@@ -7525,7 +7488,7 @@
         <v>126</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>70</v>
@@ -7534,10 +7497,10 @@
         <v>70</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,7 +7511,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>70</v>
@@ -7557,10 +7520,10 @@
         <v>70</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +7534,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>70</v>
@@ -7580,10 +7543,10 @@
         <v>70</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7594,7 +7557,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>70</v>
@@ -7603,7 +7566,7 @@
         <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>126</v>
@@ -7617,7 +7580,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>70</v>
@@ -7626,7 +7589,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>61</v>
@@ -7640,7 +7603,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>70</v>
@@ -7649,7 +7612,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>62</v>
@@ -7663,7 +7626,7 @@
         <v>122</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>69</v>
@@ -7683,7 +7646,7 @@
         <v>123</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>69</v>
@@ -7704,7 +7667,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>70</v>
